--- a/custom/demo/test/sample-input-data/accidental_discovery_and_epidemic/demo-stays SALIOU.XLSX
+++ b/custom/demo/test/sample-input-data/accidental_discovery_and_epidemic/demo-stays SALIOU.XLSX
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$L$39</definedName>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="112">
   <si>
     <t xml:space="preserve">patient_ref</t>
   </si>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">Béatrice</t>
   </si>
   <si>
-    <t xml:space="preserve">Lapine</t>
+    <t xml:space="preserve">Fremont</t>
   </si>
   <si>
     <t xml:space="preserve">rea</t>
@@ -151,13 +151,16 @@
     <t xml:space="preserve">Alexandre</t>
   </si>
   <si>
+    <t xml:space="preserve">Perche</t>
+  </si>
+  <si>
     <t xml:space="preserve">A04</t>
   </si>
   <si>
     <t xml:space="preserve">Gérard</t>
   </si>
   <si>
-    <t xml:space="preserve">Cul</t>
+    <t xml:space="preserve">Culier</t>
   </si>
   <si>
     <t xml:space="preserve">A05</t>
@@ -184,7 +187,7 @@
     <t xml:space="preserve">Pierre</t>
   </si>
   <si>
-    <t xml:space="preserve">O</t>
+    <t xml:space="preserve">Orvilier</t>
   </si>
   <si>
     <t xml:space="preserve">urg</t>
@@ -205,7 +208,10 @@
     <t xml:space="preserve">A12</t>
   </si>
   <si>
-    <t xml:space="preserve">Personne</t>
+    <t xml:space="preserve">Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raimu</t>
   </si>
   <si>
     <t xml:space="preserve">A19</t>
@@ -235,7 +241,7 @@
     <t xml:space="preserve">Estelle</t>
   </si>
   <si>
-    <t xml:space="preserve">Denis</t>
+    <t xml:space="preserve">Defrise</t>
   </si>
   <si>
     <t xml:space="preserve">Z3</t>
@@ -265,10 +271,10 @@
     <t xml:space="preserve">A11</t>
   </si>
   <si>
-    <t xml:space="preserve">Clara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morgane</t>
+    <t xml:space="preserve">Clarence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gumot</t>
   </si>
   <si>
     <t xml:space="preserve">A07</t>
@@ -283,7 +289,7 @@
     <t xml:space="preserve">Helene</t>
   </si>
   <si>
-    <t xml:space="preserve">Etlesgarçons</t>
+    <t xml:space="preserve">Edersson</t>
   </si>
   <si>
     <t xml:space="preserve">cardio</t>
@@ -304,7 +310,7 @@
     <t xml:space="preserve">Kévin</t>
   </si>
   <si>
-    <t xml:space="preserve">Rien</t>
+    <t xml:space="preserve">Renflier</t>
   </si>
   <si>
     <t xml:space="preserve">Z14</t>
@@ -401,7 +407,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,13 +423,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFBF00"/>
-        <bgColor rgb="FFFF8000"/>
+        <bgColor rgb="FFFF860D"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF8000"/>
-        <bgColor rgb="FFFF6600"/>
+        <bgColor rgb="FFFF860D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF860D"/>
+        <bgColor rgb="FFFF8000"/>
       </patternFill>
     </fill>
   </fills>
@@ -461,7 +473,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -494,6 +506,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -515,18 +531,19 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFF8000"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -534,6 +551,15 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFC9211E"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF860D"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -541,6 +567,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFBF00"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -548,6 +575,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -598,8 +626,8 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFBF00"/>
+      <rgbColor rgb="FFFF860D"/>
       <rgbColor rgb="FFFF8000"/>
-      <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -619,6 +647,112 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -627,7 +761,7 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -969,7 +1103,7 @@
         <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D10" s="3" t="n">
         <v>15472</v>
@@ -993,7 +1127,7 @@
         <v>44708.5833333333</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>22</v>
@@ -1004,10 +1138,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="3" t="n">
         <v>14591</v>
@@ -1031,7 +1165,7 @@
         <v>44700.4583333333</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>22</v>
@@ -1042,10 +1176,10 @@
         <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" s="3" t="n">
         <v>20943</v>
@@ -1069,7 +1203,7 @@
         <v>44698.4583333333</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1077,10 +1211,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" s="3" t="n">
         <v>19806</v>
@@ -1095,16 +1229,16 @@
         <v>44685.4166666667</v>
       </c>
       <c r="H13" s="4" t="n">
-        <v>44690.375</v>
+        <v>44692.375</v>
       </c>
       <c r="I13" s="4" t="n">
         <v>44685.4166666667</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>44690.375</v>
+        <v>44692.375</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>22</v>
@@ -1115,19 +1249,19 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" s="3" t="n">
         <v>19702</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G14" s="4" t="n">
         <v>44685.4583333333</v>
@@ -1142,7 +1276,7 @@
         <v>44707.4166666667</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1150,10 +1284,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" s="3" t="n">
         <v>25135</v>
@@ -1177,7 +1311,7 @@
         <v>44695.4166666667</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>22</v>
@@ -1188,10 +1322,10 @@
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D16" s="3" t="n">
         <v>21046</v>
@@ -1215,7 +1349,7 @@
         <v>44711.4583333333</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>22</v>
@@ -1226,10 +1360,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="3" t="n">
         <v>19702</v>
@@ -1253,7 +1387,7 @@
         <v>44707.4166666667</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1261,12 +1395,12 @@
         <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="8" t="n">
+      <c r="C18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="9" t="n">
         <v>19702</v>
       </c>
       <c r="E18" s="7" t="s">
@@ -1275,16 +1409,16 @@
       <c r="F18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="9" t="n">
+      <c r="G18" s="10" t="n">
         <v>44686.6666666667</v>
       </c>
-      <c r="H18" s="9" t="n">
+      <c r="H18" s="10" t="n">
         <v>44696.4583333333</v>
       </c>
-      <c r="I18" s="9" t="n">
+      <c r="I18" s="10" t="n">
         <v>44685.4583333333</v>
       </c>
-      <c r="J18" s="9" t="n">
+      <c r="J18" s="10" t="n">
         <v>44707.4166666667</v>
       </c>
       <c r="K18" s="7" t="s">
@@ -1296,10 +1430,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D19" s="3" t="n">
         <v>19950</v>
@@ -1323,7 +1457,7 @@
         <v>44698.4166666667</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>22</v>
@@ -1334,10 +1468,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D20" s="3" t="n">
         <v>32274</v>
@@ -1361,7 +1495,7 @@
         <v>44709.4583333333</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1369,10 +1503,10 @@
         <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D21" s="3" t="n">
         <v>36884</v>
@@ -1392,7 +1526,7 @@
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1400,10 +1534,10 @@
         <v>15</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D22" s="3" t="n">
         <v>31242</v>
@@ -1427,7 +1561,7 @@
         <v>44734.5833333333</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>22</v>
@@ -1438,10 +1572,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D23" s="3" t="n">
         <v>33010</v>
@@ -1465,7 +1599,7 @@
         <v>44708.4166666667</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1473,10 +1607,10 @@
         <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D24" s="3" t="n">
         <v>31152</v>
@@ -1500,7 +1634,7 @@
         <v>44718.4166666667</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>22</v>
@@ -1511,10 +1645,10 @@
         <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D25" s="3" t="n">
         <v>32558</v>
@@ -1538,7 +1672,7 @@
         <v>44699.7083333333</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>22</v>
@@ -1549,10 +1683,10 @@
         <v>37</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D26" s="3" t="n">
         <v>30783</v>
@@ -1576,7 +1710,7 @@
         <v>44715.4583333333</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1584,10 +1718,10 @@
         <v>31</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D27" s="3" t="n">
         <v>31606</v>
@@ -1628,10 +1762,10 @@
         <v>29453</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G28" s="4" t="n">
         <v>44693</v>
@@ -1646,7 +1780,7 @@
         <v>44698.4166666667</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1654,10 +1788,10 @@
         <v>9</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" s="3" t="n">
         <v>18208</v>
@@ -1681,7 +1815,7 @@
         <v>44706.4166666667</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>22</v>
@@ -1692,10 +1826,10 @@
         <v>34</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="3" t="n">
         <v>36386</v>
@@ -1719,27 +1853,27 @@
         <v>44717.2916666667</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="10" t="n">
+      <c r="A31" s="11" t="n">
         <v>24</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D31" s="3" t="n">
         <v>33011</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G31" s="4" t="n">
         <v>44695.4166666667</v>
@@ -1754,7 +1888,7 @@
         <v>44708.4166666667</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1762,10 +1896,10 @@
         <v>16</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="3" t="n">
         <v>26397</v>
@@ -1780,16 +1914,16 @@
         <v>44696.4166666667</v>
       </c>
       <c r="H32" s="4" t="n">
-        <v>44698.625</v>
+        <v>44701.625</v>
       </c>
       <c r="I32" s="4" t="n">
         <v>44696.4166666667</v>
       </c>
       <c r="J32" s="4" t="n">
-        <v>44698.625</v>
+        <v>44701.625</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>22</v>
@@ -1800,10 +1934,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D33" s="3" t="n">
         <v>19702</v>
@@ -1838,10 +1972,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D34" s="3" t="n">
         <v>31607</v>
@@ -1865,7 +1999,7 @@
         <v>44710.4583333333</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1873,10 +2007,10 @@
         <v>7</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D35" s="3" t="n">
         <v>28682</v>
@@ -1900,7 +2034,7 @@
         <v>44766.375</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>22</v>
@@ -1911,19 +2045,19 @@
         <v>21</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D36" s="3" t="n">
         <v>32275</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G36" s="4" t="n">
         <v>44701.5833333333</v>
@@ -1938,7 +2072,7 @@
         <v>44709.4583333333</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1946,19 +2080,19 @@
         <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D37" s="3" t="n">
         <v>30784</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G37" s="4" t="n">
         <v>44703.7083333333</v>
@@ -1973,7 +2107,7 @@
         <v>44715.4583333333</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1990,10 +2124,10 @@
         <v>31293</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G38" s="4" t="n">
         <v>44705.4166666667</v>
@@ -2008,7 +2142,7 @@
         <v>44727.375</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2016,19 +2150,19 @@
         <v>34</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D39" s="3" t="n">
         <v>36387</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G39" s="4" t="n">
         <v>44711.4583333333</v>
@@ -2043,7 +2177,7 @@
         <v>44717.2916666667</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
